--- a/data/trans_dic/IP19C09-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP19C09-Estudios-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -685,12 +685,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,11</t>
+          <t>0,0; 7,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,56</t>
+          <t>0,0; 13,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -705,27 +705,27 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,67</t>
+          <t>0,0; 5,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,46</t>
+          <t>0,0; 15,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,39</t>
+          <t>0,0; 4,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,68; 6,66</t>
+          <t>0,69; 8,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,89</t>
+          <t>0,0; 6,07</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,04; 6,16</t>
+          <t>1,93; 6,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,56; 3,26</t>
+          <t>0,59; 3,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,64; 3,77</t>
+          <t>0,7; 3,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,68</t>
+          <t>0,51; 3,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,79; 4,13</t>
+          <t>0,72; 4,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,87; 4,27</t>
+          <t>0,93; 4,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,53; 3,83</t>
+          <t>1,59; 4,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,93; 3,14</t>
+          <t>0,91; 2,95</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,07; 3,31</t>
+          <t>1,11; 3,35</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 6,94</t>
+          <t>0,84; 6,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,97</t>
+          <t>0,0; 5,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,13; 11,17</t>
+          <t>2,14; 11,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,75</t>
+          <t>0,0; 6,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,83</t>
+          <t>0,0; 5,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 8,72</t>
+          <t>0,95; 8,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 4,81</t>
+          <t>0,86; 4,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,35</t>
+          <t>0,38; 3,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,24; 7,35</t>
+          <t>2,4; 7,94</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,7; 4,64</t>
+          <t>1,9; 4,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,93; 3,44</t>
+          <t>0,94; 3,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,24; 4,25</t>
+          <t>1,31; 4,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,62; 2,86</t>
+          <t>0,57; 2,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,75; 3,18</t>
+          <t>0,73; 3,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,29; 4,5</t>
+          <t>1,33; 4,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,49; 3,25</t>
+          <t>1,54; 3,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,04; 2,71</t>
+          <t>1,05; 2,74</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,63; 3,6</t>
+          <t>1,55; 3,53</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP19C09-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP19C09-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1,31%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2,61%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>1,41%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>4,0%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1,31%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>2,61%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,84</t>
+          <t>0; 2,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,85</t>
+          <t>0,0; 7,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 11,7</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 7,09</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 14,68</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>0; 5,03</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0; 2,7</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 5,93</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 15,69</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,05</t>
+          <t>0,0; 3,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 8,37</t>
+          <t>0,68; 7,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,07</t>
+          <t>0,0; 4,94</t>
         </is>
       </c>
     </row>
@@ -742,32 +742,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>1,53%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1,96%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2,18%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>3,49%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>1,5%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>1,73%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,53%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>1,96%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>2,18%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,93; 6,09</t>
+          <t>0,55; 3,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,69</t>
+          <t>0,76; 4,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,7; 3,68</t>
+          <t>0,88; 4,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 3,42</t>
+          <t>1,9; 5,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,72; 4,15</t>
+          <t>0,55; 3,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,93; 4,25</t>
+          <t>0,61; 3,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,59; 4,04</t>
+          <t>1,63; 4,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,91; 2,95</t>
+          <t>0,98; 3,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,11; 3,35</t>
+          <t>1,04; 3,28</t>
         </is>
       </c>
     </row>
@@ -852,32 +852,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>1,85%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,93%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3,56%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>2,6%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>1,62%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>5,12%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,85%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,93%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>3,56%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 6,98</t>
+          <t>0,0; 5,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,18</t>
+          <t>0,0; 4,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,14; 11,25</t>
+          <t>0,96; 8,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,32</t>
+          <t>0,0; 6,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,04</t>
+          <t>0,0; 4,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 8,59</t>
+          <t>1,62; 10,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 4,97</t>
+          <t>0,84; 5,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,37</t>
+          <t>0,38; 3,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,4; 7,94</t>
+          <t>2,11; 7,63</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>1,39%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1,63%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2,55%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>3,07%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>1,82%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>2,42%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1,39%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>1,63%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>2,55%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1015,37 +1015,37 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,9; 4,82</t>
+          <t>0,58; 2,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,94; 3,43</t>
+          <t>0,72; 2,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,31; 4,08</t>
+          <t>1,2; 4,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,57; 2,72</t>
+          <t>1,97; 4,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,73; 3,13</t>
+          <t>0,82; 3,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,33; 4,33</t>
+          <t>1,22; 4,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,54; 3,32</t>
+          <t>1,5; 3,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,55; 3,53</t>
+          <t>1,62; 3,55</t>
         </is>
       </c>
     </row>
